--- a/notebooks/reflection_messages/table_2.xlsx
+++ b/notebooks/reflection_messages/table_2.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertpraas/ThoughtSource/notebooks/reflection_messages/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9BC17A-E1E5-934F-8F4F-BA83ACA9762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Average_true</t>
-  </si>
-  <si>
-    <t>Average_false</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,194 +420,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>97.354948805460751</v>
-      </c>
-      <c r="B2" s="2">
-        <v>93.737864077669897</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.617084727790854</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>95.580204778156997</v>
-      </c>
-      <c r="B3" s="2">
-        <v>85.412621359223294</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10.167583418933701</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>98.122866894197955</v>
-      </c>
-      <c r="B4" s="2">
-        <v>95.946601941747574</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.176264952450381</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>95.11945392491468</v>
-      </c>
-      <c r="B5" s="2">
-        <v>83.737864077669897</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11.381589847244779</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>94.897610921501709</v>
-      </c>
-      <c r="B6" s="2">
-        <v>88.640776699029132</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.2568342224725768</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>94.419795221843003</v>
-      </c>
-      <c r="B7" s="2">
-        <v>86.043689320388353</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.3761059014546504</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>87.849829351535831</v>
-      </c>
-      <c r="B8" s="2">
-        <v>78.446601941747574</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.4032274097882578</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>95.409556313993178</v>
-      </c>
-      <c r="B9" s="2">
-        <v>80.097087378640779</v>
-      </c>
-      <c r="C9" s="2">
-        <v>15.312468935352401</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>88.634812286689424</v>
-      </c>
-      <c r="B10" s="2">
-        <v>82.572815533980588</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.0619967527088363</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>95.921501706484648</v>
-      </c>
-      <c r="B11" s="2">
-        <v>86.674757281553397</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.2467444249312507</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>97.440273037542667</v>
-      </c>
-      <c r="B12" s="2">
-        <v>78.203883495145632</v>
-      </c>
-      <c r="C12" s="2">
-        <v>19.236389542397031</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>94.613713931120202</v>
-      </c>
-      <c r="B13" s="2">
-        <v>85.410414827890577</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.2032991032296252</v>
-      </c>
-      <c r="D13" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Average_true</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_false</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>98.9795918367347</v>
+      </c>
+      <c r="B2" t="n">
+        <v>94.36893203883496</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.610659797899743</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>95.5952380952381</v>
+      </c>
+      <c r="B3" t="n">
+        <v>83.51941747572816</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.07582061950994</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>99.5578231292517</v>
+      </c>
+      <c r="B4" t="n">
+        <v>97.47572815533981</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.082094973911893</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>96.36054421768708</v>
+      </c>
+      <c r="B5" t="n">
+        <v>82.8883495145631</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.47219470312398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>97.3639455782313</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90.67961165048544</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.684333927745854</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>96.59863945578232</v>
+      </c>
+      <c r="B7" t="n">
+        <v>86.45631067961165</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.14232877617067</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>88.19727891156462</v>
+      </c>
+      <c r="B8" t="n">
+        <v>77.71844660194175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.47883230962287</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>95.96938775510205</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77.45145631067962</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.51793144442243</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>91.0204081632653</v>
+      </c>
+      <c r="B10" t="n">
+        <v>84.75728155339806</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.263126609867243</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>97.65306122448979</v>
+      </c>
+      <c r="B11" t="n">
+        <v>87.40291262135922</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.25014860313057</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>97.82312925170068</v>
+      </c>
+      <c r="B12" t="n">
+        <v>72.52427184466019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.29885740704049</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>95.91991341991374</v>
+      </c>
+      <c r="B13" t="n">
+        <v>85.02206531332747</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10.89784810658627</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
